--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,6 +407,36 @@
           <t>Alle regelhenvisninger (forbedring)</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Aktivitetsnummer</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rapporttittel</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Dato</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Oppgaveleder</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deltakere_i_revisjon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,6 +478,36 @@
         <is>
           <t xml:space="preserve">Rammeforskriften § 15 - God helse-, miljø- og sikkerhetskultur
 </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.ptil.no//contentassets/f955a9317bff4749bfc21db88383a8a3/2020_102_rapport-palegg-tilsyn-neptune-gjoa-vedlikeholdsstyring.pdf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">027153044 </t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">undervannsanleggene (aktivitet 027153044)  </t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.04.2020 </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenneth Skogen </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihajlovic </t>
         </is>
       </c>
     </row>
@@ -478,6 +538,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,6 +572,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -534,6 +606,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -562,6 +640,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -590,6 +674,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -618,6 +708,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -646,6 +742,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -674,6 +776,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -702,6 +810,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">undervannsanleggene (aktivitet 027153044)  </t>
+          <t xml:space="preserve">Tilsynet med styringen av vedlikeholdet på Gjøa, deriblant undervannsanleggene (aktivitet 027153044)  </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mihajlovic </t>
+          <t xml:space="preserve">Thom Fosselie, Eirik Duesten, Kenneth Skogen, Hans Spilde, Damir Mihajlovic </t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,21 @@
           <t>Deltakere_i_revisjon</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myndighet</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Tilsynslaget størrelse</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>År</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -447,67 +462,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Styrende dokumenter </t>
+          <t xml:space="preserve"> Offshorekranene – kranførers sikt til lasteområder</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flere styrende dokumenter, deriblant tekniske driftsdokumenter, forelå ikke i oppdatert versjon og var ikke godt nok kjent av driftspersonellet. </t>
+          <t>Lasteområder eller deler av disse er ikke utformet for effektiv og sikker materialhåndtering.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 20 - Oppstart og drift av innretninger
+          <t xml:space="preserve">Innretningsforskriften § 13 - Materialhåndtering og transportveier, atkomst og evakueringsveier
 </t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> God helse-, miljø- og sikkerhetskultur</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Selskapet synes ikke å ha fremmet en god helse-, miljø- og sikkerhetskultur innenfor vedlikeholdsstyring.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rammeforskriften § 15 - God helse-, miljø- og sikkerhetskultur
-</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ptil.no//contentassets/f955a9317bff4749bfc21db88383a8a3/2020_102_rapport-palegg-tilsyn-neptune-gjoa-vedlikeholdsstyring.pdf</t>
+          <t>https://www.ptil.no//contentassets/b68aa38caef5418cb6c3e04653c94844/tilsynsrapport-seadrill-west-bollsta-logistikk</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">027153044 </t>
+          <t xml:space="preserve">404011002 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tilsynet med styringen av vedlikeholdet på Gjøa, deriblant undervannsanleggene (aktivitet 027153044)  </t>
+          <t xml:space="preserve">Rapport etter SUT-tilsyn med logistikk på West Bollsta </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">27.04.2020 </t>
+          <t xml:space="preserve">24.03.2020 </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kenneth Skogen </t>
+          <t xml:space="preserve">Bjarte Rødne </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thom Fosselie, Eirik Duesten, Kenneth Skogen, Hans Spilde, Damir Mihajlovic </t>
+          <t xml:space="preserve">Lars Melkild, Bjarte Rødne, Caroline Lagoutte </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PTIL</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -520,17 +533,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Informasjons- og kommunikasjonssystemer </t>
+          <t xml:space="preserve"> Sertifisering av løfteutstyr i boreområdet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Det var mangler ved informasjons- og kommunikasjonssystemer som skulle ivareta behovet for innhenting, bearbeiding og formidling av data og informasjon, til bruk i vedlikeholds-styringen. </t>
+          <t>Manglende sertifisering av løfteutstyr i boreområdet.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Styringsforskriften § 15 - Informasjon
+          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
+Innretningsforskriften § 69 - Løfteinnretninger og løfteredskap
 </t>
         </is>
       </c>
@@ -544,6 +558,9 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -554,17 +571,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Avviksbehandling</t>
+          <t xml:space="preserve"> Kommunikasjon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Selskapet hadde ikke registrert og fulgt opp alle avvik fra krav i helse-, miljø- og sikkerhets­lovgivningen, deriblant avvik fra interne krav som er av betydning for å oppfylle krav i den lovgivningen.</t>
+          <t>Mangelfullt utstyr for kommunikasjon i løfteoperasjoner.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Styringsforskriften § 22 - Avviksbehandling
+          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
+Innretningsforskriften § 69 - Løfteinnretninger og løfteredskap
 </t>
         </is>
       </c>
@@ -578,6 +596,9 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -588,17 +609,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Klassifisering</t>
+          <t xml:space="preserve"> Uavklarte forhold innen logistikk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>For noen systemer og noe utstyr var klassifiseringen mangelfull eller feil med hensyn til konsekvensene for helse-, miljø- og sikkerhet av potensielle funksjonsfeil.</t>
+          <t>Gjenstående arbeid og uavklarte forhold innen logistikk.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 46 - Klassifisering
+          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
 </t>
         </is>
       </c>
@@ -612,210 +633,9 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vedlikeholdsprogram</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vedlikeholdsprogrammet, den systematiske forebyggingen av sviktmodi og svikt­mekanismer som kan føre til slike sviktmodi, var mangelfullt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 47 - Vedlikeholdsprogram
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Planlegging og prioritering</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Selskapet manglet kriterier for setting av prioritet for utføring av de forebyggende vedlike­holdsaktivitetene. Kriteriene for det forebyggende vedlikeholdet tok ikke hensyn til klassifi­seringen.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 48 - Planlegging og prioritering
-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vedlikeholdseffektivitet</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Selskapet har ikke evaluert effektiviteten av vedlikeholdet systematisk på grunnlag av regi­strerte data for ytelse og teknisk tilstand for innretningen eller deler av den.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 49 - Vedlikeholdseffektivitet
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Barrierer</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Det var mangler ved de strategiene og prinsippene som legges til grunn for utforming, bruk og vedlikehold av barrierer, og det var mangelfull identifisering av barrierefunksjoner og krav til barriereelementenes ytelse. Kjennskapen til hvilke barrierer og barriereelementer som var ute av funksjon eller svekket, var begrenset.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bemanning og kompetanse</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Forutsetningene som er lagt til grunn for bemanning og kompetanse, var ikke tilstrekkelig fulgt opp. Mulige konsekvenser for helse, miljø og sikkerhet ved endringer i bemanningen var ikke utredet i stor nok grad.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Styringsforskriften § 14 - Bemanning og kompetanse
-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bruk av norsk språk</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Selskapet kunne ikke dokumentere at bruken av engelsk i skriftlig materiale som prosedyrer og manualer ikke gikk på bekostning av sikkerheten.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rammeforskriften § 14 - Bruk av norsk språk
-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,47 +409,57 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Kategori (forbedringer)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Aktivitetsnummer</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Rapporttittel</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Dato</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Oppgaveleder</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Deltakere_i_revisjon</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Myndighet</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Tilsynslaget størrelse</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>År</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Antall funn</t>
         </is>
       </c>
     </row>
@@ -462,66 +472,89 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offshorekranene – kranførers sikt til lasteområder</t>
+          <t xml:space="preserve"> Oppfølging av utstyr for materialhåndtering</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lasteområder eller deler av disse er ikke utformet for effektiv og sikker materialhåndtering.</t>
+          <t>Manglende sikkerhetsmessig samsvarmåling med gjeldende regelverk for aldrende løfteinnretninger og utstyr for materialhåndtering.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Innretningsforskriften § 13 - Materialhåndtering og transportveier, atkomst og evakueringsveier
+          <t xml:space="preserve">Innretningsforskriften § 82 - Ikrafttredelse
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mangelfull kompetanse </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Personell innen logistikk på Draugen manglet tilstrekkelig kompetanse til å bruke løfteutstyr.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
+</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.ptil.no//contentassets/b68aa38caef5418cb6c3e04653c94844/tilsynsrapport-seadrill-west-bollsta-logistikk</t>
+          <t>category_prediction(test_imp.description)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">404011002 </t>
+          <t>https://www.ptil.no//contentassets/7d74d197df714c3188c464d5ef8d987e/2020_509_rapport-tilsyn-okea-draugen-materialhandtering-kran-og-loft-arbeid-i-hoyden-arbeidsmiljo.pdf</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rapport etter SUT-tilsyn med logistikk på West Bollsta </t>
+          <t xml:space="preserve">061093005 </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.03.2020 </t>
+          <t xml:space="preserve">Tilsynsrapport etter tilsyn innen materialhåndtering, kran og løft, arbeid i høyden og arbeidsmiljø på Draugen </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bjarte Rødne </t>
+          <t xml:space="preserve">8.5.2020 </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lars Melkild, Bjarte Rødne, Caroline Lagoutte </t>
+          <t xml:space="preserve">Sigmund Andreassen </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Torbjørn Gjerde, Anne Sissel Graue, Hilde Nilsen </t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>PTIL</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
+      </c>
+      <c r="T2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -533,26 +566,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sertifisering av løfteutstyr i boreområdet</t>
+          <t xml:space="preserve"> Oppfølging av sakkyndig virksomhet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Manglende sertifisering av løfteutstyr i boreområdet.</t>
+          <t>Okea har ikke sikret at overvåking og kontroll av løfteutstyr utføres etter anbefalt norm.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
-Innretningsforskriften § 69 - Løfteinnretninger og løfteredskap
+          <t xml:space="preserve">Aktivitetsforskriften § 47 - Vedlikeholdsprogram
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mangelfulle arbeidsmiljøkartlegginger</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arbeidsmiljøkartleggingene for Draugen var mangelfulle.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Styringsforskriften § 18 - Analyse av arbeidsmiljøet
+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>category_prediction(test_imp.description)</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -561,6 +612,8 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -571,18 +624,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kommunikasjon</t>
+          <t xml:space="preserve"> Førbrukssjekk av offshorekraner som en del av beredskapsplanen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mangelfullt utstyr for kommunikasjon i løfteoperasjoner.</t>
+          <t>Manglende gjennomføring av før- og etterbrukssjekk av offshorekranene som inngår i beredskapsplanen.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
-Innretningsforskriften § 69 - Løfteinnretninger og løfteredskap
 </t>
         </is>
       </c>
@@ -599,6 +651,8 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -609,17 +663,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Uavklarte forhold innen logistikk</t>
+          <t xml:space="preserve"> Vedlikehold av ståltau</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gjenstående arbeid og uavklarte forhold innen logistikk.</t>
+          <t>Manglende kontroll og vedlikehold av ståltau.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
+          <t xml:space="preserve">Aktivitetsforskriften § 45 - Vedlikehold
 </t>
         </is>
       </c>
@@ -636,6 +690,86 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arbeid i høyden</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mangelfull tilretteleggelse for bruk av stiger i forbindelse med stillas.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aktivitetsforskriften § 33 - Tilrettelegging av arbeid
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Styrende dokumenter innen arbeidsmiljø</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mangelfullt utarbeidede styrende dokumenter innen arbeidsmiljø i OKEA sitt styringssystem.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Styringsforskriften § 8 - Interne krav
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,75 +389,80 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Kategori (avvik)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Forbedringspunkter</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tittel på forbedringspunkt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Forbedringens beskrivende tekst</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Alle regelhenvisninger (forbedring)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Kategori (forbedringer)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Aktivitetsnummer</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Rapporttittel</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Dato</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Oppgaveleder</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Deltakere_i_revisjon</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Myndighet</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tilsynslaget størrelse</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>År</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Antall funn</t>
         </is>
@@ -486,74 +491,79 @@
 </t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mangelfull kompetanse </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Personell innen logistikk på Draugen manglet tilstrekkelig kompetanse til å bruke løfteutstyr.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
 </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>category_prediction(test_imp.description)</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>['styring']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>https://www.ptil.no//contentassets/7d74d197df714c3188c464d5ef8d987e/2020_509_rapport-tilsyn-okea-draugen-materialhandtering-kran-og-loft-arbeid-i-hoyden-arbeidsmiljo.pdf</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">061093005 </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilsynsrapport etter tilsyn innen materialhåndtering, kran og løft, arbeid i høyden og arbeidsmiljø på Draugen </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve">8.5.2020 </t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sigmund Andreassen </t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torbjørn Gjerde, Anne Sissel Graue, Hilde Nilsen </t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>PTIL</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>3</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -580,31 +590,35 @@
 </t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['styring']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Mangelfulle arbeidsmiljøkartlegginger</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Arbeidsmiljøkartleggingene for Draugen var mangelfulle.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">Styringsforskriften § 18 - Analyse av arbeidsmiljøet
 </t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>category_prediction(test_imp.description)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -614,6 +628,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -638,7 +653,11 @@
 </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['styring']</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -653,6 +672,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -677,7 +697,11 @@
 </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['materialhåndtering']</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -692,6 +716,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -716,7 +741,11 @@
 </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['styring']</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -731,6 +760,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -755,7 +785,11 @@
 </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['styring']</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -770,6 +804,7 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,21 @@
           <t>Antall funn</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Type installasjon</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Installasjon</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Operatør/eier</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -493,7 +508,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['teknisksikkerhet']</t>
+          <t>['materialhåndtering']</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -517,7 +532,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['styring']</t>
+          <t>['materialhåndtering']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -565,6 +580,21 @@
       </c>
       <c r="U2" t="n">
         <v>8</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Installasjon</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Draugen</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -592,7 +622,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['styring']</t>
+          <t>['materialhåndtering']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -629,6 +659,9 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -655,7 +688,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['styring']</t>
+          <t>['materialhåndtering']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -673,6 +706,9 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -717,6 +753,9 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -761,6 +800,9 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -805,6 +847,9 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>Operatør/eier</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Installasjon (rigg eller installalasjon)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -586,14 +591,15 @@
           <t>Installasjon</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Draugen</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>TBA</t>
         </is>
       </c>
     </row>
@@ -662,6 +668,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -709,6 +716,7 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -756,6 +764,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -803,6 +812,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -850,6 +860,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,23 +497,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oppfølging av utstyr for materialhåndtering</t>
+          <t xml:space="preserve"> Barrierestyring</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manglende sikkerhetsmessig samsvarmåling med gjeldende regelverk for aldrende løfteinnretninger og utstyr for materialhåndtering.</t>
+          <t xml:space="preserve">Mangelfull ivaretakelse av krav til barrierer, herunder fastsettelse av ytelseskrav og oppfølging av tilhørende tilstand. </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Innretningsforskriften § 82 - Ikrafttredelse
+          <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['materialhåndtering']</t>
+          <t>['teknisksikkerhet']</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -521,53 +521,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mangelfull kompetanse </t>
+          <t xml:space="preserve"> Utforming av blackstart prosedyre </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Personell innen logistikk på Draugen manglet tilstrekkelig kompetanse til å bruke løfteutstyr.</t>
+          <t>Den ansvarlige synes ikke i tilstrekkelig grad å ha utformet blackstart prosedyren på en entydig og brukervennlig måte slik at den oppfyller sin tiltenkte funksjon.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
+          <t xml:space="preserve">Aktivitetsforskriften § 24 - Prosedyrer
 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['materialhåndtering']</t>
+          <t>['teknisksikkerhet']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ptil.no//contentassets/7d74d197df714c3188c464d5ef8d987e/2020_509_rapport-tilsyn-okea-draugen-materialhandtering-kran-og-loft-arbeid-i-hoyden-arbeidsmiljo.pdf</t>
+          <t>https://www.ptil.no//contentassets/48703b73602c4b38968e0d518f685565/tilsynsrapport-etter-tilsyn-med-elektriske-anlegg-instrumenterte-sikkerhetssystemer-og-teknisk-sikkerhet-pa-petrojarl-knarr-fpso.pdf</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">061093005 </t>
+          <t xml:space="preserve">411003018 </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tilsynsrapport etter tilsyn innen materialhåndtering, kran og løft, arbeid i høyden og arbeidsmiljø på Draugen </t>
+          <t xml:space="preserve"> Gradering </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">8.5.2020 </t>
+          <t xml:space="preserve">4.5.2020 </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sigmund Andreassen </t>
+          <t xml:space="preserve">Jan Sola Østensen </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Torbjørn Gjerde, Anne Sissel Graue, Hilde Nilsen </t>
+          <t xml:space="preserve">Liv Ranveig Rundell, Trond Jan Øglend og Jan S. Østensen </t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>TBA</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Draugen</t>
+          <t>Petrojarl Knarr</t>
         </is>
       </c>
     </row>
@@ -612,23 +612,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oppfølging av sakkyndig virksomhet</t>
+          <t xml:space="preserve"> Vedlikeholdsstyring </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Okea har ikke sikret at overvåking og kontroll av løfteutstyr utføres etter anbefalt norm.</t>
+          <t xml:space="preserve">Mangelfull oppfølging av sikkerhetskritisk utstyr for å sikre at disse holdes ved like, slik at de er i stand til å utføre sine funksjoner </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 47 - Vedlikeholdsprogram
+          <t xml:space="preserve">Aktivitetsforskriften § 45 - Vedlikehold
+Aktivitetsforskriften § 46 - Klassifisering
+Aktivitetsforskriften § 47 - Vedlikeholdsprogram
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['materialhåndtering']</t>
+          <t>['teknisksikkerhet']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -636,17 +638,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mangelfulle arbeidsmiljøkartlegginger</t>
+          <t xml:space="preserve"> Synliggjøring av beslutningsgrunnlag </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Arbeidsmiljøkartleggingene for Draugen var mangelfulle.</t>
+          <t xml:space="preserve">Den ansvarlige kunne ikke dokumentere at problemstillinger som angår helse, miljø og sikkerhet, var allsidig og tilstrekkelig belyst før beslutninger treffes.  </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Styringsforskriften § 18 - Analyse av arbeidsmiljøet
+          <t xml:space="preserve">Styringsforskriften § 11 - Beslutningsgrunnlag og beslutningskriterier
 </t>
         </is>
       </c>
@@ -679,30 +681,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Førbrukssjekk av offshorekraner som en del av beredskapsplanen</t>
+          <t xml:space="preserve"> Nødkraftsystemer </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manglende gjennomføring av før- og etterbrukssjekk av offshorekranene som inngår i beredskapsplanen.</t>
+          <t xml:space="preserve">Manglende dokumentasjon på at nødstrømsanlegg (UPS anlegg) har tilstrekkelig selektivitet mellom vern ved feil i anlegget. Det kunne heller ikke dokumenteres at det var utført vurderinger vedrørende behovet for kontinuerlig drift av forbrukere forsynt fra nødkraftsystemet. </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 92 - Løfteoperasjoner
+          <t xml:space="preserve">Innretningsforskriften § 38 - Nødkraft og nødbelysning
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['materialhåndtering']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kartlegging av potensielle tennkilder </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mangler ved systematisk kartlegging av potensielle tennkilder.  </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Innretningsforskriften § 10a - Tennkildekontroll
+</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -727,30 +748,50 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vedlikehold av ståltau</t>
+          <t xml:space="preserve"> Nødbelysning </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manglende kontroll og vedlikehold av ståltau.</t>
+          <t xml:space="preserve">Det var ikke sikret at nødlysanlegget gir nødvendig belysning i kritiske områder ved utfall av øvrig belysning. </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 45 - Vedlikehold
+          <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
+Innretningsforskriften § 38 - Nødkraft og nødbelysning
 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['materialhåndtering']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rutiner for lagerhold </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selskapet kunne ikke vise til rutiner for ivaretakelse av teknisk tilstand til utstyr på lager. </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aktivitetsforskriften § 16 - Installering og ferdigstilling
+</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -775,23 +816,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arbeid i høyden</t>
+          <t xml:space="preserve"> Konsekvens av verste brann  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mangelfull tilretteleggelse for bruk av stiger i forbindelse med stillas.</t>
+          <t xml:space="preserve">Det kunne ikke dokumenteres at en eventuell verste prosessbrann (worst credible process fire) ikke eskalerer ut av brannområdet.  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 33 - Tilrettelegging av arbeid
+          <t xml:space="preserve">Innretningsforskriften § 30 - Brannskiller
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['styring']</t>
+          <t>['teknisksikkerhet']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -823,23 +864,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Styrende dokumenter innen arbeidsmiljø</t>
+          <t xml:space="preserve"> Risikovurdering av helsefare ved elektromagnetiske felt   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mangelfullt utarbeidede styrende dokumenter innen arbeidsmiljø i OKEA sitt styringssystem.</t>
+          <t xml:space="preserve">Manglende kartlegging og dokumentasjon av i hvilken utstrekning arbeidstakerne utsettes for elektromagnetiske felt utover fastsatte grenseverdier.  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Styringsforskriften § 8 - Interne krav
+          <t xml:space="preserve">Aktivitetsforskriften § 37 - Stråling
 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['styring']</t>
+          <t>['teknisksikkerhet']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -862,6 +903,103 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arbeid i og drift av elektriske anlegg </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mangler ved iverksettelse og oppfølging av robustgjøringstiltak for å unngå fare- og ulykkessituasjoner knyttet til arbeid i og drift av elektriske anlegg. </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
+Aktivitetsforskriften § 91 - Arbeid i og drift av elektriske anlegg
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manglende kompetanse for kommunikasjonsansvarlig   </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Den ansvarlige kunne ikke dokumentere at kommunikasjonsansvarlig har den nødvendige kompetansen for å kunne utføre aktivitetene i henhold til helse-, miljø- og sikkerhetslovgivningen. </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['teknisksikkerhet']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,77 +497,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Barrierestyring</t>
+          <t xml:space="preserve"> Mangler med kapasitet og kompetanse</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mangelfull ivaretakelse av krav til barrierer, herunder fastsettelse av ytelseskrav og oppfølging av tilhørende tilstand. </t>
+          <t>Det var ikke samsvar mellom tilgjengelige ressurser, kompetanse og planlagte oppgaver.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Styringsforskriften § 14 - Bemanning og kompetanse
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['styring']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bedre barrierestyring </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Det var enkelte mangler med strategier og prinsipper for barrierenes funksjon.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['teknisksikkerhet']</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Utforming av blackstart prosedyre </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Den ansvarlige synes ikke i tilstrekkelig grad å ha utformet blackstart prosedyren på en entydig og brukervennlig måte slik at den oppfyller sin tiltenkte funksjon.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 24 - Prosedyrer
-</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.ptil.no//contentassets/48703b73602c4b38968e0d518f685565/tilsynsrapport-etter-tilsyn-med-elektriske-anlegg-instrumenterte-sikkerhetssystemer-og-teknisk-sikkerhet-pa-petrojarl-knarr-fpso.pdf</t>
+          <t>https://www.ptil.no//contentassets/450c52df67044edfac277b1eea84925e/2020_79_rapport-tilsyn-equinor-oseberg-c-barrierestyring.pdf</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">411003018 </t>
+          <t xml:space="preserve">001053053 </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gradering </t>
+          <t xml:space="preserve">Tilsyn med styring av barrierer på Oseberg C </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4.5.2020 </t>
+          <t xml:space="preserve">27.3.2020 </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Sola Østensen </t>
+          <t xml:space="preserve">Odd Tjelta </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liv Ranveig Rundell, Trond Jan Øglend og Jan S. Østensen </t>
+          <t xml:space="preserve">Odd Tjelta, Kristi Wiger, Eivind Sande, Eivind Hovland, Gerhard Ersdal og Elisabeth Lootz </t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Installasjon</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Petrojarl Knarr</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -612,25 +612,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vedlikeholdsstyring </t>
+          <t xml:space="preserve"> Mangler med varsling og oppfølging av brønnhendelsen 28.2.2019 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mangelfull oppfølging av sikkerhetskritisk utstyr for å sikre at disse holdes ved like, slik at de er i stand til å utføre sine funksjoner </t>
+          <t>Det var mangler med varsling og oppfølging av hendelse.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 45 - Vedlikehold
-Aktivitetsforskriften § 46 - Klassifisering
-Aktivitetsforskriften § 47 - Vedlikeholdsprogram
+          <t xml:space="preserve">Styringsforskriften § 30 - Informasjon om oppfølging av fare- og ulykkessituasjoner
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['teknisksikkerhet']</t>
+          <t>['vedlikehold']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -638,17 +636,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Synliggjøring av beslutningsgrunnlag </t>
+          <t xml:space="preserve"> Mangler ved oppfølging av operasjonelle og organisatoriske barriereelementer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Den ansvarlige kunne ikke dokumentere at problemstillinger som angår helse, miljø og sikkerhet, var allsidig og tilstrekkelig belyst før beslutninger treffes.  </t>
+          <t>Det var mangler ved ytelseskrav, verifikasjon av ytelse og overvåking av operasjonelle og organisatoriske barriereelementer, samt gjennomføring av treninger.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Styringsforskriften § 11 - Beslutningsgrunnlag og beslutningskriterier
+          <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
+Aktivitetsforskriften § 23 - Trening og øvelser
 </t>
         </is>
       </c>
@@ -672,334 +671,6 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nødkraftsystemer </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manglende dokumentasjon på at nødstrømsanlegg (UPS anlegg) har tilstrekkelig selektivitet mellom vern ved feil i anlegget. Det kunne heller ikke dokumenteres at det var utført vurderinger vedrørende behovet for kontinuerlig drift av forbrukere forsynt fra nødkraftsystemet. </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Innretningsforskriften § 38 - Nødkraft og nødbelysning
-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kartlegging av potensielle tennkilder </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mangler ved systematisk kartlegging av potensielle tennkilder.  </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Innretningsforskriften § 10a - Tennkildekontroll
-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nødbelysning </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Det var ikke sikret at nødlysanlegget gir nødvendig belysning i kritiske områder ved utfall av øvrig belysning. </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Styringsforskriften § 5 - Barrierer
-Innretningsforskriften § 38 - Nødkraft og nødbelysning
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Rutiner for lagerhold </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selskapet kunne ikke vise til rutiner for ivaretakelse av teknisk tilstand til utstyr på lager. </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 16 - Installering og ferdigstilling
-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Konsekvens av verste brann  </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Det kunne ikke dokumenteres at en eventuell verste prosessbrann (worst credible process fire) ikke eskalerer ut av brannområdet.  </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Innretningsforskriften § 30 - Brannskiller
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Risikovurdering av helsefare ved elektromagnetiske felt   </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manglende kartlegging og dokumentasjon av i hvilken utstrekning arbeidstakerne utsettes for elektromagnetiske felt utover fastsatte grenseverdier.  </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 37 - Stråling
-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Arbeid i og drift av elektriske anlegg </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mangler ved iverksettelse og oppfølging av robustgjøringstiltak for å unngå fare- og ulykkessituasjoner knyttet til arbeid i og drift av elektriske anlegg. </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
-Aktivitetsforskriften § 91 - Arbeid i og drift av elektriske anlegg
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Manglende kompetanse for kommunikasjonsansvarlig   </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Den ansvarlige kunne ikke dokumentere at kommunikasjonsansvarlig har den nødvendige kompetansen for å kunne utføre aktivitetene i henhold til helse-, miljø- og sikkerhetslovgivningen. </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aktivitetsforskriften § 21 - Kompetanse
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['teknisksikkerhet']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
